--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5340" tabRatio="768" firstSheet="3" activeTab="5"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="1366">
   <si>
     <t>Runmode</t>
   </si>
@@ -4104,6 +4104,27 @@
   </si>
   <si>
     <t>TestDeleteOrder</t>
+  </si>
+  <si>
+    <t>TestCreateFavoriteOrder</t>
+  </si>
+  <si>
+    <t>FavoriteOrderName</t>
+  </si>
+  <si>
+    <t>MyFavOrder</t>
+  </si>
+  <si>
+    <t>TestCreateFavoriteOrderFromOrder</t>
+  </si>
+  <si>
+    <t>PurchaseOrderNumber</t>
+  </si>
+  <si>
+    <t>2548525</t>
+  </si>
+  <si>
+    <t>TestCreateOrderFromFavOrder</t>
   </si>
 </sst>
 </file>
@@ -14071,10 +14092,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14086,6 +14107,7 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" style="77" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -14414,11 +14436,200 @@
         <v>1353</v>
       </c>
     </row>
+    <row r="33" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C35" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E35" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F35" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G35" s="81" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H35" s="81" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C39" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D39" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E39" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F39" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G39" s="81" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H39" s="81" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I39" s="81" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C43" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D43" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E43" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F43" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G43" s="81" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H43" s="81" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I43" s="81" t="s">
+        <v>1361</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C23" r:id="rId1"/>
     <hyperlink ref="C27" r:id="rId2"/>
     <hyperlink ref="C31" r:id="rId3"/>
+    <hyperlink ref="C35" r:id="rId4"/>
+    <hyperlink ref="C39" r:id="rId5"/>
+    <hyperlink ref="C43" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17262,7 +17473,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3037" uniqueCount="1376">
   <si>
     <t>Runmode</t>
   </si>
@@ -4125,6 +4125,36 @@
   </si>
   <si>
     <t>TestCreateOrderFromFavOrder</t>
+  </si>
+  <si>
+    <t>TestCreateScheduleOrder</t>
+  </si>
+  <si>
+    <t>MyScheduleOrder</t>
+  </si>
+  <si>
+    <t>ScheduleOrderName</t>
+  </si>
+  <si>
+    <t>TestEditScheduleOrderQty</t>
+  </si>
+  <si>
+    <t>TestDeleteScheduleOrderQty</t>
+  </si>
+  <si>
+    <t>TestCreateSecondScheduleOrder</t>
+  </si>
+  <si>
+    <t>TestSkipShipment</t>
+  </si>
+  <si>
+    <t>TestAddNewMaterial</t>
+  </si>
+  <si>
+    <t>TestRemoveExistingMaterial</t>
+  </si>
+  <si>
+    <t>TestChangeArrivalDate</t>
   </si>
 </sst>
 </file>
@@ -14092,10 +14122,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14622,6 +14652,518 @@
         <v>1361</v>
       </c>
     </row>
+    <row r="45" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D47" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E47" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F47" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G47" s="81" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H47" s="81" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I47" s="81" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B49" s="16"/>
+    </row>
+    <row r="50" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C51" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D51" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E51" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F51" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G51" s="81" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H51" s="81" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I51" s="81" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B53" s="16"/>
+    </row>
+    <row r="54" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C55" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D55" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E55" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F55" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G55" s="81" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H55" s="81" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I55" s="81" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B57" s="16"/>
+    </row>
+    <row r="58" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C59" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D59" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F59" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G59" s="81" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H59" s="81" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I59" s="81" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B61" s="16"/>
+    </row>
+    <row r="62" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D63" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E63" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F63" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G63" s="81" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H63" s="81" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I63" s="81" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B65" s="16"/>
+    </row>
+    <row r="66" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C67" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D67" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E67" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F67" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G67" s="81" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H67" s="81" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I67" s="81" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B69" s="16"/>
+    </row>
+    <row r="70" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C71" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D71" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E71" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F71" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G71" s="81" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H71" s="81" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I71" s="81" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B73" s="16"/>
+    </row>
+    <row r="74" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="80" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C75" s="79" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D75" s="81" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E75" s="81" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F75" s="81" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G75" s="81" t="s">
+        <v>1367</v>
+      </c>
+      <c r="H75" s="81" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I75" s="81" t="s">
+        <v>1361</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C23" r:id="rId1"/>
@@ -14630,6 +15172,14 @@
     <hyperlink ref="C35" r:id="rId4"/>
     <hyperlink ref="C39" r:id="rId5"/>
     <hyperlink ref="C43" r:id="rId6"/>
+    <hyperlink ref="C47" r:id="rId7"/>
+    <hyperlink ref="C51" r:id="rId8"/>
+    <hyperlink ref="C55" r:id="rId9"/>
+    <hyperlink ref="C59" r:id="rId10"/>
+    <hyperlink ref="C63" r:id="rId11"/>
+    <hyperlink ref="C67" r:id="rId12"/>
+    <hyperlink ref="C71" r:id="rId13"/>
+    <hyperlink ref="C75" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F6A1D5-F3BA-4708-B43B-B3E78EF6BAAC}" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5340" tabRatio="768" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="5340" tabRatio="768" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Browsers" sheetId="14" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="1381">
   <si>
     <t>Browser</t>
   </si>
@@ -4168,16 +4167,19 @@
   </si>
   <si>
     <t>Forecasts</t>
+  </si>
+  <si>
+    <t>TestCucumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4698,11 +4700,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5037,19 +5039,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -5057,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
@@ -5065,7 +5067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>5</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
@@ -5095,14 +5097,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{7BE570AB-09E9-518F-B8F7-3F91B7162CA9}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
@@ -5118,7 +5120,7 @@
     <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
@@ -5135,7 +5137,7 @@
       <c r="L1" s="74"/>
       <c r="M1" s="74"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -5170,7 +5172,7 @@
       <c r="L2" s="74"/>
       <c r="M2" s="74"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -5205,7 +5207,7 @@
       <c r="L3" s="74"/>
       <c r="M3" s="74"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>54</v>
       </c>
@@ -5222,7 +5224,7 @@
       <c r="L5" s="74"/>
       <c r="M5" s="74"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -5259,7 +5261,7 @@
       <c r="L6" s="74"/>
       <c r="M6" s="74"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -5296,7 +5298,7 @@
       <c r="L7" s="74"/>
       <c r="M7" s="74"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>55</v>
       </c>
@@ -5313,7 +5315,7 @@
       <c r="L9" s="74"/>
       <c r="M9" s="74"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -5354,7 +5356,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -5395,7 +5397,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>56</v>
       </c>
@@ -5412,7 +5414,7 @@
       <c r="L13" s="74"/>
       <c r="M13" s="74"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -5453,7 +5455,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -5501,14 +5503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{65FA3815-DCC1-5481-872F-D2879ED395ED}">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N22" sqref="N22:N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -5525,7 +5527,7 @@
     <col min="17" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>59</v>
       </c>
@@ -5542,7 +5544,7 @@
       <c r="L1" s="74"/>
       <c r="M1" s="74"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -5571,7 +5573,7 @@
       <c r="L2" s="74"/>
       <c r="M2" s="74"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -5600,7 +5602,7 @@
       <c r="L3" s="74"/>
       <c r="M3" s="74"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="74"/>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -5615,7 +5617,7 @@
       <c r="L4" s="74"/>
       <c r="M4" s="74"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>60</v>
       </c>
@@ -5632,7 +5634,7 @@
       <c r="L5" s="74"/>
       <c r="M5" s="74"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -5673,7 +5675,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -5714,7 +5716,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>61</v>
       </c>
@@ -5731,7 +5733,7 @@
       <c r="L9" s="74"/>
       <c r="M9" s="74"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -5762,7 +5764,7 @@
       <c r="L10" s="74"/>
       <c r="M10" s="74"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -5793,7 +5795,7 @@
       <c r="L11" s="74"/>
       <c r="M11" s="74"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>62</v>
       </c>
@@ -5810,7 +5812,7 @@
       <c r="L13" s="74"/>
       <c r="M13" s="74"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -5839,7 +5841,7 @@
       <c r="L14" s="74"/>
       <c r="M14" s="74"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -5868,7 +5870,7 @@
       <c r="L15" s="74"/>
       <c r="M15" s="74"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>63</v>
       </c>
@@ -5886,7 +5888,7 @@
       <c r="M17" s="74"/>
       <c r="N17" s="74"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -5916,7 +5918,7 @@
       <c r="M18" s="74"/>
       <c r="N18" s="74"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -5946,7 +5948,7 @@
       <c r="M19" s="74"/>
       <c r="N19" s="74"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>64</v>
       </c>
@@ -5964,7 +5966,7 @@
       <c r="M21" s="74"/>
       <c r="N21" s="74"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
@@ -6052,7 +6054,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>65</v>
       </c>
@@ -6070,7 +6072,7 @@
       <c r="M25" s="74"/>
       <c r="N25" s="74"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
@@ -6106,7 +6108,7 @@
       <c r="M26" s="74"/>
       <c r="N26" s="74"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -6142,7 +6144,7 @@
       <c r="M27" s="74"/>
       <c r="N27" s="74"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>66</v>
       </c>
@@ -6160,7 +6162,7 @@
       <c r="M29" s="74"/>
       <c r="N29" s="74"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -6194,7 +6196,7 @@
       <c r="M30" s="74"/>
       <c r="N30" s="74"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>7</v>
       </c>
@@ -6235,14 +6237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0" xr3:uid="{FF0BDA26-1AD6-5648-BD9A-E01AA4DDCA7C}">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -6263,7 +6265,7 @@
     <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>69</v>
       </c>
@@ -6286,7 +6288,7 @@
       <c r="R1" s="74"/>
       <c r="S1" s="74"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6331,7 +6333,7 @@
       <c r="R2" s="74"/>
       <c r="S2" s="74"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -6374,7 +6376,7 @@
       <c r="R3" s="74"/>
       <c r="S3" s="74"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>3</v>
       </c>
@@ -6419,7 +6421,7 @@
       <c r="R4" s="74"/>
       <c r="S4" s="74"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>70</v>
       </c>
@@ -6442,7 +6444,7 @@
       <c r="R6" s="74"/>
       <c r="S6" s="74"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -6487,7 +6489,7 @@
       <c r="R7" s="74"/>
       <c r="S7" s="74"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -6532,7 +6534,7 @@
       <c r="R8" s="74"/>
       <c r="S8" s="74"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>71</v>
       </c>
@@ -6555,7 +6557,7 @@
       <c r="R10" s="74"/>
       <c r="S10" s="74"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>3</v>
       </c>
@@ -6669,7 +6671,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>3</v>
       </c>
@@ -6726,7 +6728,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>3</v>
       </c>
@@ -6785,7 +6787,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -6842,7 +6844,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>72</v>
       </c>
@@ -6858,7 +6860,7 @@
       <c r="K17" s="74"/>
       <c r="L17" s="74"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -6896,7 +6898,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -6932,7 +6934,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -6970,7 +6972,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>73</v>
       </c>
@@ -6986,7 +6988,7 @@
       <c r="K22" s="74"/>
       <c r="L22" s="74"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>1</v>
       </c>
@@ -7024,7 +7026,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
@@ -7068,19 +7070,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DD_Values!$I$3:$I$9</xm:f>
           </x14:formula1>
           <xm:sqref>C19:C20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DD_Values!$J$3:$J$18</xm:f>
           </x14:formula1>
           <xm:sqref>H20</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DD_Values!$J$3:$J$19</xm:f>
           </x14:formula1>
@@ -7093,14 +7095,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{C67EF94B-0B3B-5838-830C-E3A509766221}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
@@ -7115,7 +7117,7 @@
     <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>1251</v>
       </c>
@@ -7132,7 +7134,7 @@
       <c r="L1" s="74"/>
       <c r="M1" s="74"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -7173,7 +7175,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -7214,7 +7216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>1251</v>
       </c>
@@ -7231,7 +7233,7 @@
       <c r="L5" s="74"/>
       <c r="M5" s="74"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -7264,7 +7266,7 @@
       <c r="L6" s="74"/>
       <c r="M6" s="74"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -7297,7 +7299,7 @@
       <c r="L7" s="74"/>
       <c r="M7" s="74"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>1259</v>
       </c>
@@ -7314,7 +7316,7 @@
       <c r="L9" s="74"/>
       <c r="M9" s="74"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -7396,7 +7398,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>7</v>
       </c>
@@ -7444,14 +7446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0" xr3:uid="{274F5AE0-5452-572F-8038-C13FFDA59D49}">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -7467,7 +7469,7 @@
     <col min="12" max="12" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>1260</v>
       </c>
@@ -7491,7 +7493,7 @@
       <c r="K1" s="85"/>
       <c r="L1" s="85"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>77</v>
       </c>
@@ -7529,7 +7531,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>78</v>
       </c>
@@ -7567,7 +7569,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>1277</v>
       </c>
@@ -7605,7 +7607,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>1285</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>1294</v>
       </c>
@@ -7669,7 +7671,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>1264</v>
       </c>
@@ -7697,7 +7699,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>1305</v>
       </c>
@@ -7723,7 +7725,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>1311</v>
       </c>
@@ -7749,7 +7751,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>1317</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>1322</v>
       </c>
@@ -7797,7 +7799,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>1327</v>
       </c>
@@ -7819,7 +7821,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>1331</v>
       </c>
@@ -7841,7 +7843,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>1335</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>1339</v>
       </c>
@@ -7885,7 +7887,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>1343</v>
       </c>
@@ -7907,7 +7909,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>1347</v>
       </c>
@@ -7929,7 +7931,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>1351</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>1355</v>
       </c>
@@ -7973,7 +7975,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>1358</v>
       </c>
@@ -7993,7 +7995,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>1361</v>
       </c>
@@ -8013,7 +8015,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>1364</v>
       </c>
@@ -8033,7 +8035,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>1367</v>
       </c>
@@ -8053,7 +8055,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>1370</v>
       </c>
@@ -8071,7 +8073,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>1372</v>
       </c>
@@ -8089,7 +8091,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>1374</v>
       </c>
@@ -8107,7 +8109,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>1376</v>
       </c>
@@ -8123,7 +8125,7 @@
       <c r="K27" s="74"/>
       <c r="L27" s="74"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>1377</v>
       </c>
@@ -8139,7 +8141,7 @@
       <c r="K28" s="74"/>
       <c r="L28" s="74"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>79</v>
       </c>
@@ -8155,7 +8157,7 @@
       <c r="K29" s="74"/>
       <c r="L29" s="74"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>1378</v>
       </c>
@@ -8171,7 +8173,7 @@
       <c r="K30" s="74"/>
       <c r="L30" s="74"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>1379</v>
       </c>
@@ -8199,14 +8201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -8215,7 +8217,7 @@
     <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>2</v>
       </c>
@@ -8224,7 +8226,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>8</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
@@ -8258,14 +8260,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
@@ -8274,7 +8276,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>17</v>
       </c>
@@ -8308,14 +8310,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>5</v>
       </c>
@@ -8324,7 +8326,7 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>8</v>
       </c>
@@ -8341,7 +8343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>18</v>
       </c>
@@ -8358,7 +8360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>6</v>
       </c>
@@ -8367,7 +8369,7 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>8</v>
       </c>
@@ -8384,7 +8386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>17</v>
       </c>
@@ -8407,14 +8409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="49" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="49" bestFit="1" customWidth="1"/>
@@ -8424,7 +8426,7 @@
     <col min="6" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>20</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>4</v>
       </c>
@@ -8456,7 +8458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D3" s="50" t="s">
         <v>27</v>
       </c>
@@ -8464,7 +8466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="48" customFormat="1">
+    <row r="4" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
         <v>6</v>
       </c>
@@ -8478,7 +8480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" s="50" t="s">
         <v>30</v>
       </c>
@@ -8486,7 +8488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="50" t="s">
         <v>31</v>
       </c>
@@ -8494,7 +8496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D7" s="50" t="s">
         <v>32</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" s="50" t="s">
         <v>33</v>
       </c>
@@ -8510,7 +8512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" s="50" t="s">
         <v>34</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="50" t="s">
         <v>35</v>
       </c>
@@ -8526,7 +8528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="50" t="s">
         <v>36</v>
       </c>
@@ -8534,7 +8536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="48" customFormat="1">
+    <row r="12" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>4</v>
       </c>
@@ -8548,7 +8550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="50" t="s">
         <v>39</v>
       </c>
@@ -8556,7 +8558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="50" t="s">
         <v>40</v>
       </c>
@@ -8564,7 +8566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="50" t="s">
         <v>41</v>
       </c>
@@ -8572,7 +8574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" s="50" t="s">
         <v>42</v>
       </c>
@@ -8580,7 +8582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D17" s="50" t="s">
         <v>43</v>
       </c>
@@ -8588,7 +8590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D18" s="50" t="s">
         <v>44</v>
       </c>
@@ -8596,7 +8598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D19" s="50" t="s">
         <v>45</v>
       </c>
@@ -8604,7 +8606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D20" s="50" t="s">
         <v>46</v>
       </c>
@@ -8612,7 +8614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="48" customFormat="1">
+    <row r="21" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>4</v>
       </c>
@@ -8626,7 +8628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" s="50" t="s">
         <v>48</v>
       </c>
@@ -8634,7 +8636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="50" t="s">
         <v>49</v>
       </c>
@@ -8642,7 +8644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" s="50" t="s">
         <v>50</v>
       </c>
@@ -8650,7 +8652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="50" t="s">
         <v>51</v>
       </c>
@@ -8658,7 +8660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="48" customFormat="1">
+    <row r="26" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>4</v>
       </c>
@@ -8672,7 +8674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="50" t="s">
         <v>53</v>
       </c>
@@ -8680,7 +8682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" s="50" t="s">
         <v>54</v>
       </c>
@@ -8688,7 +8690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D29" s="50" t="s">
         <v>55</v>
       </c>
@@ -8696,7 +8698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" s="50" t="s">
         <v>56</v>
       </c>
@@ -8704,7 +8706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="48" customFormat="1">
+    <row r="31" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>4</v>
       </c>
@@ -8718,7 +8720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" s="50" t="s">
         <v>59</v>
       </c>
@@ -8726,7 +8728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="50" t="s">
         <v>60</v>
       </c>
@@ -8734,7 +8736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="50" t="s">
         <v>61</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="50" t="s">
         <v>62</v>
       </c>
@@ -8750,7 +8752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="50" t="s">
         <v>63</v>
       </c>
@@ -8758,7 +8760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="50" t="s">
         <v>64</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" s="50" t="s">
         <v>65</v>
       </c>
@@ -8774,7 +8776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D39" s="50" t="s">
         <v>66</v>
       </c>
@@ -8782,7 +8784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="48" customFormat="1">
+    <row r="40" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>4</v>
       </c>
@@ -8796,7 +8798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D41" s="50" t="s">
         <v>69</v>
       </c>
@@ -8804,7 +8806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" s="50" t="s">
         <v>70</v>
       </c>
@@ -8812,7 +8814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D43" s="50" t="s">
         <v>71</v>
       </c>
@@ -8820,7 +8822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" s="50" t="s">
         <v>72</v>
       </c>
@@ -8828,7 +8830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" s="50" t="s">
         <v>73</v>
       </c>
@@ -8842,27 +8844,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B833"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.85546875" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -8870,7 +8872,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -8878,17 +8880,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="15"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -8896,7 +8898,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -8904,7 +8906,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -8912,17 +8914,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -8930,7 +8932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -8938,7 +8940,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -8946,21 +8948,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
@@ -8968,7 +8970,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -8976,7 +8978,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -8984,7 +8986,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -8992,7 +8994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
@@ -9000,7 +9002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -9008,7 +9010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -9016,7 +9018,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -9024,7 +9026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -9032,7 +9034,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>7</v>
       </c>
@@ -9040,7 +9042,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -9048,7 +9050,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -9056,7 +9058,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
@@ -9064,7 +9066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
@@ -9072,7 +9074,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
@@ -9080,7 +9082,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -9088,7 +9090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
@@ -9096,7 +9098,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -9104,7 +9106,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -9112,7 +9114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -9120,7 +9122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -9128,7 +9130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -9136,7 +9138,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>7</v>
       </c>
@@ -9144,7 +9146,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -9152,7 +9154,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
@@ -9160,7 +9162,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>7</v>
       </c>
@@ -9168,7 +9170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
@@ -9176,7 +9178,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>7</v>
       </c>
@@ -9184,7 +9186,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
@@ -9192,7 +9194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
@@ -9200,7 +9202,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>7</v>
       </c>
@@ -9208,7 +9210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -9216,7 +9218,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
@@ -9224,7 +9226,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>7</v>
       </c>
@@ -9232,7 +9234,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
@@ -9240,7 +9242,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
@@ -9248,7 +9250,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
@@ -9256,7 +9258,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>7</v>
       </c>
@@ -9264,7 +9266,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>7</v>
       </c>
@@ -9272,7 +9274,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
@@ -9280,7 +9282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
@@ -9288,7 +9290,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>7</v>
       </c>
@@ -9296,7 +9298,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -9304,7 +9306,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -9312,7 +9314,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>7</v>
       </c>
@@ -9320,7 +9322,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>7</v>
       </c>
@@ -9328,7 +9330,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>7</v>
       </c>
@@ -9336,7 +9338,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
@@ -9344,7 +9346,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -9352,7 +9354,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>7</v>
       </c>
@@ -9360,7 +9362,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>7</v>
       </c>
@@ -9368,7 +9370,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
@@ -9376,7 +9378,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>7</v>
       </c>
@@ -9384,7 +9386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>7</v>
       </c>
@@ -9392,7 +9394,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>7</v>
       </c>
@@ -9400,7 +9402,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>7</v>
       </c>
@@ -9408,7 +9410,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -9416,7 +9418,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -9424,7 +9426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>7</v>
       </c>
@@ -9432,7 +9434,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>7</v>
       </c>
@@ -9440,7 +9442,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>7</v>
       </c>
@@ -9448,7 +9450,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>7</v>
       </c>
@@ -9456,7 +9458,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -9464,7 +9466,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>7</v>
       </c>
@@ -9472,7 +9474,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>7</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>7</v>
       </c>
@@ -9488,7 +9490,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
@@ -9496,7 +9498,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>7</v>
       </c>
@@ -9504,7 +9506,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>7</v>
       </c>
@@ -9512,7 +9514,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>7</v>
       </c>
@@ -9520,7 +9522,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>7</v>
       </c>
@@ -9528,7 +9530,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>7</v>
       </c>
@@ -9536,7 +9538,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
@@ -9544,7 +9546,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>7</v>
       </c>
@@ -9552,7 +9554,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
@@ -9560,7 +9562,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>7</v>
       </c>
@@ -9568,7 +9570,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>7</v>
       </c>
@@ -9576,7 +9578,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
@@ -9584,7 +9586,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -9592,7 +9594,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>7</v>
       </c>
@@ -9600,7 +9602,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>7</v>
       </c>
@@ -9608,7 +9610,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>7</v>
       </c>
@@ -9616,7 +9618,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>7</v>
       </c>
@@ -9624,7 +9626,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>7</v>
       </c>
@@ -9632,7 +9634,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>7</v>
       </c>
@@ -9640,7 +9642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>7</v>
       </c>
@@ -9648,7 +9650,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
@@ -9656,7 +9658,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>7</v>
       </c>
@@ -9664,7 +9666,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>7</v>
       </c>
@@ -9672,7 +9674,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
@@ -9680,7 +9682,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>7</v>
       </c>
@@ -9688,7 +9690,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>7</v>
       </c>
@@ -9696,7 +9698,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>7</v>
       </c>
@@ -9704,7 +9706,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>7</v>
       </c>
@@ -9712,7 +9714,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>7</v>
       </c>
@@ -9720,7 +9722,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>7</v>
       </c>
@@ -9728,7 +9730,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>7</v>
       </c>
@@ -9736,7 +9738,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>7</v>
       </c>
@@ -9744,7 +9746,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
@@ -9752,7 +9754,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -9760,7 +9762,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>7</v>
       </c>
@@ -9768,13 +9770,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B120" s="15"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>1</v>
       </c>
@@ -9782,7 +9784,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>3</v>
       </c>
@@ -9790,7 +9792,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>3</v>
       </c>
@@ -9798,7 +9800,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
@@ -9806,7 +9808,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
@@ -9814,7 +9816,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>3</v>
       </c>
@@ -9822,7 +9824,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
@@ -9830,7 +9832,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -9838,17 +9840,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="53"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B130" s="15"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>1</v>
       </c>
@@ -9856,7 +9858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>3</v>
       </c>
@@ -9864,7 +9866,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
@@ -9872,7 +9874,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>3</v>
       </c>
@@ -9880,7 +9882,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>3</v>
       </c>
@@ -9888,7 +9890,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>3</v>
       </c>
@@ -9896,7 +9898,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>3</v>
       </c>
@@ -9904,7 +9906,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>3</v>
       </c>
@@ -9912,7 +9914,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
@@ -9920,7 +9922,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>3</v>
       </c>
@@ -9928,7 +9930,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
@@ -9936,7 +9938,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>3</v>
       </c>
@@ -9944,7 +9946,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
@@ -9952,7 +9954,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
@@ -9960,7 +9962,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
@@ -9968,7 +9970,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>3</v>
       </c>
@@ -9976,7 +9978,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>3</v>
       </c>
@@ -9984,7 +9986,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>3</v>
       </c>
@@ -9992,7 +9994,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>3</v>
       </c>
@@ -10000,7 +10002,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>3</v>
       </c>
@@ -10008,7 +10010,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>3</v>
       </c>
@@ -10016,7 +10018,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>3</v>
       </c>
@@ -10024,7 +10026,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>3</v>
       </c>
@@ -10032,7 +10034,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>3</v>
       </c>
@@ -10040,7 +10042,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>3</v>
       </c>
@@ -10048,7 +10050,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>3</v>
       </c>
@@ -10056,7 +10058,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>3</v>
       </c>
@@ -10064,7 +10066,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>3</v>
       </c>
@@ -10072,7 +10074,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>3</v>
       </c>
@@ -10080,7 +10082,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>3</v>
       </c>
@@ -10088,7 +10090,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>3</v>
       </c>
@@ -10096,7 +10098,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>3</v>
       </c>
@@ -10104,7 +10106,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>3</v>
       </c>
@@ -10112,7 +10114,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>3</v>
       </c>
@@ -10120,7 +10122,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>3</v>
       </c>
@@ -10128,7 +10130,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>3</v>
       </c>
@@ -10136,7 +10138,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>3</v>
       </c>
@@ -10144,7 +10146,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>3</v>
       </c>
@@ -10152,7 +10154,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>3</v>
       </c>
@@ -10160,7 +10162,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>3</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>3</v>
       </c>
@@ -10176,7 +10178,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>3</v>
       </c>
@@ -10184,7 +10186,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>3</v>
       </c>
@@ -10192,7 +10194,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>3</v>
       </c>
@@ -10200,7 +10202,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>3</v>
       </c>
@@ -10208,7 +10210,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
@@ -10216,7 +10218,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>3</v>
       </c>
@@ -10224,7 +10226,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>3</v>
       </c>
@@ -10232,7 +10234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>3</v>
       </c>
@@ -10240,7 +10242,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>3</v>
       </c>
@@ -10248,7 +10250,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>3</v>
       </c>
@@ -10256,7 +10258,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>3</v>
       </c>
@@ -10264,7 +10266,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>3</v>
       </c>
@@ -10272,7 +10274,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
@@ -10280,7 +10282,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>3</v>
       </c>
@@ -10288,7 +10290,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>3</v>
       </c>
@@ -10296,7 +10298,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>3</v>
       </c>
@@ -10304,7 +10306,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>3</v>
       </c>
@@ -10312,7 +10314,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>3</v>
       </c>
@@ -10320,7 +10322,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>3</v>
       </c>
@@ -10328,7 +10330,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>3</v>
       </c>
@@ -10336,7 +10338,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>3</v>
       </c>
@@ -10344,7 +10346,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>3</v>
       </c>
@@ -10352,7 +10354,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>3</v>
       </c>
@@ -10360,7 +10362,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>3</v>
       </c>
@@ -10368,7 +10370,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>3</v>
       </c>
@@ -10376,7 +10378,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>3</v>
       </c>
@@ -10384,7 +10386,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>3</v>
       </c>
@@ -10392,7 +10394,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>3</v>
       </c>
@@ -10400,7 +10402,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>3</v>
       </c>
@@ -10408,7 +10410,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>3</v>
       </c>
@@ -10416,7 +10418,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>3</v>
       </c>
@@ -10424,7 +10426,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>3</v>
       </c>
@@ -10432,7 +10434,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>3</v>
       </c>
@@ -10440,7 +10442,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>3</v>
       </c>
@@ -10448,7 +10450,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>3</v>
       </c>
@@ -10456,7 +10458,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>3</v>
       </c>
@@ -10464,7 +10466,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>3</v>
       </c>
@@ -10472,7 +10474,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>3</v>
       </c>
@@ -10480,7 +10482,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>3</v>
       </c>
@@ -10488,7 +10490,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>3</v>
       </c>
@@ -10496,7 +10498,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>3</v>
       </c>
@@ -10504,7 +10506,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>3</v>
       </c>
@@ -10512,7 +10514,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>3</v>
       </c>
@@ -10520,7 +10522,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>3</v>
       </c>
@@ -10528,7 +10530,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>3</v>
       </c>
@@ -10536,7 +10538,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>3</v>
       </c>
@@ -10544,7 +10546,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>3</v>
       </c>
@@ -10552,7 +10554,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>3</v>
       </c>
@@ -10560,7 +10562,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>3</v>
       </c>
@@ -10568,7 +10570,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>3</v>
       </c>
@@ -10576,7 +10578,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>3</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>3</v>
       </c>
@@ -10592,7 +10594,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>3</v>
       </c>
@@ -10600,7 +10602,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>3</v>
       </c>
@@ -10608,7 +10610,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>3</v>
       </c>
@@ -10616,7 +10618,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>3</v>
       </c>
@@ -10624,7 +10626,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>3</v>
       </c>
@@ -10632,7 +10634,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>3</v>
       </c>
@@ -10640,7 +10642,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>3</v>
       </c>
@@ -10648,7 +10650,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>3</v>
       </c>
@@ -10656,7 +10658,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>3</v>
       </c>
@@ -10664,7 +10666,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>3</v>
       </c>
@@ -10672,7 +10674,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>3</v>
       </c>
@@ -10680,7 +10682,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>3</v>
       </c>
@@ -10688,7 +10690,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>3</v>
       </c>
@@ -10696,7 +10698,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>3</v>
       </c>
@@ -10704,7 +10706,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>3</v>
       </c>
@@ -10712,7 +10714,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>3</v>
       </c>
@@ -10720,7 +10722,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>3</v>
       </c>
@@ -10728,7 +10730,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>3</v>
       </c>
@@ -10736,7 +10738,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>3</v>
       </c>
@@ -10744,7 +10746,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>3</v>
       </c>
@@ -10752,7 +10754,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>3</v>
       </c>
@@ -10760,7 +10762,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>3</v>
       </c>
@@ -10768,7 +10770,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>3</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>3</v>
       </c>
@@ -10784,7 +10786,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>3</v>
       </c>
@@ -10792,7 +10794,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>3</v>
       </c>
@@ -10800,7 +10802,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>3</v>
       </c>
@@ -10808,7 +10810,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>3</v>
       </c>
@@ -10816,7 +10818,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>3</v>
       </c>
@@ -10824,7 +10826,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>3</v>
       </c>
@@ -10832,7 +10834,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>3</v>
       </c>
@@ -10840,7 +10842,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>3</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>3</v>
       </c>
@@ -10856,7 +10858,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>3</v>
       </c>
@@ -10864,7 +10866,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>3</v>
       </c>
@@ -10872,7 +10874,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>3</v>
       </c>
@@ -10880,7 +10882,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>3</v>
       </c>
@@ -10888,7 +10890,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>3</v>
       </c>
@@ -10896,7 +10898,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>3</v>
       </c>
@@ -10904,7 +10906,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>3</v>
       </c>
@@ -10912,7 +10914,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>3</v>
       </c>
@@ -10920,7 +10922,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>3</v>
       </c>
@@ -10928,7 +10930,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>3</v>
       </c>
@@ -10936,7 +10938,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>3</v>
       </c>
@@ -10944,7 +10946,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>3</v>
       </c>
@@ -10952,7 +10954,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>3</v>
       </c>
@@ -10960,7 +10962,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>3</v>
       </c>
@@ -10968,7 +10970,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>3</v>
       </c>
@@ -10976,7 +10978,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>3</v>
       </c>
@@ -10984,7 +10986,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>3</v>
       </c>
@@ -10992,7 +10994,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>3</v>
       </c>
@@ -11000,7 +11002,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>3</v>
       </c>
@@ -11008,7 +11010,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>3</v>
       </c>
@@ -11016,7 +11018,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>3</v>
       </c>
@@ -11024,7 +11026,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>3</v>
       </c>
@@ -11032,7 +11034,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>3</v>
       </c>
@@ -11040,7 +11042,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>3</v>
       </c>
@@ -11048,7 +11050,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>3</v>
       </c>
@@ -11056,7 +11058,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>3</v>
       </c>
@@ -11064,7 +11066,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>3</v>
       </c>
@@ -11072,7 +11074,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>3</v>
       </c>
@@ -11080,7 +11082,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>3</v>
       </c>
@@ -11088,7 +11090,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>3</v>
       </c>
@@ -11096,7 +11098,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>3</v>
       </c>
@@ -11104,7 +11106,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>3</v>
       </c>
@@ -11112,7 +11114,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>3</v>
       </c>
@@ -11120,7 +11122,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>3</v>
       </c>
@@ -11128,7 +11130,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>3</v>
       </c>
@@ -11136,7 +11138,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>3</v>
       </c>
@@ -11144,7 +11146,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>3</v>
       </c>
@@ -11152,7 +11154,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>3</v>
       </c>
@@ -11160,7 +11162,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>3</v>
       </c>
@@ -11168,7 +11170,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>3</v>
       </c>
@@ -11176,7 +11178,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>3</v>
       </c>
@@ -11184,7 +11186,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>3</v>
       </c>
@@ -11192,7 +11194,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>3</v>
       </c>
@@ -11200,7 +11202,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>3</v>
       </c>
@@ -11208,7 +11210,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>3</v>
       </c>
@@ -11216,7 +11218,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>3</v>
       </c>
@@ -11224,7 +11226,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>3</v>
       </c>
@@ -11232,7 +11234,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>3</v>
       </c>
@@ -11240,7 +11242,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>3</v>
       </c>
@@ -11248,17 +11250,17 @@
         <v>362</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="43"/>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B307" s="15"/>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>1</v>
       </c>
@@ -11266,3047 +11268,3047 @@
         <v>181</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="55" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="51" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="51" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="51" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="51" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="51" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="51" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="55" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="51" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="51" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="51" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="51" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="51" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="51" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="51" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="51" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="51" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="51" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="51" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="51" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="51" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="51" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="51" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="51" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="51" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="51" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="51" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="51" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="51" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="51" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="51" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="51" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="51" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="51" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="51" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="51" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="51" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="51" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="51" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="51" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="51" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="51" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="51" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="51" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="51" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="51" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="51" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="51" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="51" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="51" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="51" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="51" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="51" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="51" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="51" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="51" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="51" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="51" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="51" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="51" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="51" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="51" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="51" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="51" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="51" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="51" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="51" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="51" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="51" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="51" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="51" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="51" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="51" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="51" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="51" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="51" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="51" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="51" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="51" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="51" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="51" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="51" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="51" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="51" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="51" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="51" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="51" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="51" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="51" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="51" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="51" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="51" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="51" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="51" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="51" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="51" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="51" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="51" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="51" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="51" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="51" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="51" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="51" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="51" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="51" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="51" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="51" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="51" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="51" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="51" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="51" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="51" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="51" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="51" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="51" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="51" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="51" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="51" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="51" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="51" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="51" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="51" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="51" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="51" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="51" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="51" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="51" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="51" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="51" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="51" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="51" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="51" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="51" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="51" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="51" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="51" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="51" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="51" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="51" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="51" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="51" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="51" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="51" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="51" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="51" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="51" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="51" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="51" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="51" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="51" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="51" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="51" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="51" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="51" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="51" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="51" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="51" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="51" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="51" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="51" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="51" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="51" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="51" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="51" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="51" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="51" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="51" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="51" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="51" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="51" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="51" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="51" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="51" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="51" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="51" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="51" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="51" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="51" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="51" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="51" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="51" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="51" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="51" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="51" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="51" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="51" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="51" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="51" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="51" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="51" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="51" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="51" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="51" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="51" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="51" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="51" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="51" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="51" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="51" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="51" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="51" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="51" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="51" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="51" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="51" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="51" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="51" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="51" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="51" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="51" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="51" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="51" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="51" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="51" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="51" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="51" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="51" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="51" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="51" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="528" spans="1:2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="51" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="51" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="51" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="51" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="51" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="51" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="51" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="51" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="51" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="51" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="51" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="55" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="540" spans="1:2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="51" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="51" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="51" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="51" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="51" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="51" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="51" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="51" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="51" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="51" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="51" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="51" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="51" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="51" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="51" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="51" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="51" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="51" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="51" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="51" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="51" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="51" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="51" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="51" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="564" spans="1:2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="51" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="51" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="51" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="51" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="568" spans="1:2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="51" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="569" spans="1:2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="51" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="51" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="51" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="51" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="573" spans="1:2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="51" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="574" spans="1:2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="51" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="51" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="576" spans="1:2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="51" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="577" spans="1:2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="51" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="51" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="51" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="51" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="51" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="51" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="583" spans="1:2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="51" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="51" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="585" spans="1:2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="51" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="51" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="51" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="51" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="589" spans="1:2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="51" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="51" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="51" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="592" spans="1:2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="51" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="51" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="594" spans="1:2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="51" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="595" spans="1:2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="51" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="596" spans="1:2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="51" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="597" spans="1:2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="51" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="598" spans="1:2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="51" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="51" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="51" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="601" spans="1:2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="51" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="602" spans="1:2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="51" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="603" spans="1:2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="51" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="604" spans="1:2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="51" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="51" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="606" spans="1:2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="51" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="607" spans="1:2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="51" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="608" spans="1:2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="51" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="609" spans="1:2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="51" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="51" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="51" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="51" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="613" spans="1:2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="51" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="614" spans="1:2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="51" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="615" spans="1:2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="51" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="616" spans="1:2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="51" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="617" spans="1:2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="51" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="618" spans="1:2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="51" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="619" spans="1:2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="55" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="620" spans="1:2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="51" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="51" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="622" spans="1:2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="51" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="623" spans="1:2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="51" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="624" spans="1:2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="51" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="625" spans="1:2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="51" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="626" spans="1:2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="51" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="51" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="628" spans="1:2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="51" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="629" spans="1:2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="51" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="630" spans="1:2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="51" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="631" spans="1:2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="51" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="632" spans="1:2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="51" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="633" spans="1:2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="51" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="634" spans="1:2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="51" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="51" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="636" spans="1:2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="51" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="637" spans="1:2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="51" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="638" spans="1:2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="51" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="639" spans="1:2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="51" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="640" spans="1:2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="51" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="641" spans="1:2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="51" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="642" spans="1:2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="51" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="643" spans="1:2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="51" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="644" spans="1:2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="51" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="645" spans="1:2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="51" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="646" spans="1:2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="51" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="647" spans="1:2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="51" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="648" spans="1:2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="51" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="51" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="650" spans="1:2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="51" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="651" spans="1:2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="51" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="652" spans="1:2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="51" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="653" spans="1:2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="51" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="654" spans="1:2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="51" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="655" spans="1:2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="51" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="656" spans="1:2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="51" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="657" spans="2:2">
+    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B657" s="51" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="658" spans="2:2">
+    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B658" s="51" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="659" spans="2:2">
+    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B659" s="51" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="660" spans="2:2">
+    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B660" s="51" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="661" spans="2:2">
+    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B661" s="51" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="662" spans="2:2">
+    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B662" s="51" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="663" spans="2:2">
+    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B663" s="51" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="664" spans="2:2">
+    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B664" s="51" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="665" spans="2:2">
+    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B665" s="51" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="666" spans="2:2">
+    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B666" s="51" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="667" spans="2:2">
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B667" s="51" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="668" spans="2:2">
+    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B668" s="51" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="669" spans="2:2">
+    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B669" s="51" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="670" spans="2:2">
+    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B670" s="51" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="671" spans="2:2">
+    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B671" s="51" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="672" spans="2:2">
+    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B672" s="51" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="673" spans="2:2">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B673" s="51" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="674" spans="2:2">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B674" s="51" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="675" spans="2:2">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B675" s="51" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="676" spans="2:2">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B676" s="51" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="677" spans="2:2">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B677" s="51" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="678" spans="2:2">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B678" s="51" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="679" spans="2:2">
+    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B679" s="51" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="680" spans="2:2">
+    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B680" s="51" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="681" spans="2:2">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B681" s="51" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="682" spans="2:2">
+    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B682" s="51" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="683" spans="2:2">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B683" s="51" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="684" spans="2:2">
+    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B684" s="51" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="685" spans="2:2">
+    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B685" s="51" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="686" spans="2:2">
+    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B686" s="51" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="687" spans="2:2">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B687" s="51" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="688" spans="2:2">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B688" s="51" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="689" spans="2:2">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B689" s="51" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="690" spans="2:2">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B690" s="51" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="691" spans="2:2">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B691" s="51" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="692" spans="2:2">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B692" s="51" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="693" spans="2:2">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B693" s="51" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="694" spans="2:2">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B694" s="51" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="695" spans="2:2">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B695" s="51" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="696" spans="2:2">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B696" s="51" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="697" spans="2:2">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B697" s="51" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="698" spans="2:2">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B698" s="51" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="699" spans="2:2">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B699" s="51" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="700" spans="2:2">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B700" s="51" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="701" spans="2:2">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B701" s="51" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="702" spans="2:2">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B702" s="51" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="703" spans="2:2">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B703" s="51" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="704" spans="2:2">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B704" s="51" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="705" spans="2:2">
+    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B705" s="51" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="706" spans="2:2">
+    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B706" s="51" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="707" spans="2:2">
+    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B707" s="51" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="708" spans="2:2">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B708" s="51" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="709" spans="2:2">
+    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B709" s="51" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="710" spans="2:2">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B710" s="51" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="711" spans="2:2">
+    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B711" s="51" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="712" spans="2:2">
+    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B712" s="51" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="713" spans="2:2">
+    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B713" s="51" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="714" spans="2:2">
+    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B714" s="51" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="715" spans="2:2">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B715" s="51" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="716" spans="2:2">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B716" s="51" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="717" spans="2:2">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B717" s="51" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="718" spans="2:2">
+    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B718" s="51" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="719" spans="2:2">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B719" s="51" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="720" spans="2:2">
+    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B720" s="51" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="721" spans="2:2">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B721" s="51" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="722" spans="2:2">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B722" s="51" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="723" spans="2:2">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B723" s="51" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="724" spans="2:2">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B724" s="51" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="725" spans="2:2">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B725" s="51" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="726" spans="2:2">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B726" s="51" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="727" spans="2:2">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B727" s="51" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="728" spans="2:2">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B728" s="51" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="729" spans="2:2">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B729" s="51" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="730" spans="2:2">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B730" s="51" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="731" spans="2:2">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B731" s="51" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="732" spans="2:2">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B732" s="51" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="733" spans="2:2">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B733" s="51" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="734" spans="2:2">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B734" s="51" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="735" spans="2:2">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B735" s="51" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="736" spans="2:2">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B736" s="51" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="737" spans="2:2">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B737" s="51" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="738" spans="2:2">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B738" s="51" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="739" spans="2:2">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B739" s="51" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="740" spans="2:2">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B740" s="51" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="741" spans="2:2">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B741" s="51" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="742" spans="2:2">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B742" s="51" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="743" spans="2:2">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B743" s="51" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="744" spans="2:2">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B744" s="51" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="745" spans="2:2">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B745" s="51" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="746" spans="2:2">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B746" s="51" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="747" spans="2:2">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B747" s="51" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="748" spans="2:2">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B748" s="51" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="749" spans="2:2">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B749" s="51" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="750" spans="2:2">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B750" s="51" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="751" spans="2:2">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B751" s="51" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="752" spans="2:2">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B752" s="51" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="753" spans="2:2">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B753" s="51" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="754" spans="2:2">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B754" s="55" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="755" spans="2:2">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B755" s="51" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="756" spans="2:2">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B756" s="51" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="757" spans="2:2">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B757" s="51" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="758" spans="2:2">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B758" s="51" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="759" spans="2:2">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B759" s="51" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="760" spans="2:2">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B760" s="51" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="761" spans="2:2">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B761" s="51" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="762" spans="2:2">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B762" s="51" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="763" spans="2:2">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B763" s="51" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="764" spans="2:2">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B764" s="51" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="765" spans="2:2">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B765" s="51" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="766" spans="2:2">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B766" s="51" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="767" spans="2:2">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B767" s="51" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="768" spans="2:2">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B768" s="51" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="769" spans="2:2">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B769" s="51" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="770" spans="2:2">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B770" s="51" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="771" spans="2:2">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B771" s="51" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="772" spans="2:2">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B772" s="51" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="773" spans="2:2">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B773" s="51" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="774" spans="2:2">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B774" s="51" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="775" spans="2:2">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B775" s="51" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="776" spans="2:2">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B776" s="51" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="777" spans="2:2">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B777" s="51" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="778" spans="2:2">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B778" s="51" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="779" spans="2:2">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B779" s="51" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="780" spans="2:2">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B780" s="51" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="781" spans="2:2">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B781" s="51" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="782" spans="2:2">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B782" s="51" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="783" spans="2:2">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B783" s="51" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="784" spans="2:2">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B784" s="51" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="785" spans="2:2">
+    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B785" s="51" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="786" spans="2:2">
+    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B786" s="51" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="787" spans="2:2">
+    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B787" s="51" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="788" spans="2:2">
+    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B788" s="51" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="789" spans="2:2">
+    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B789" s="51" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="790" spans="2:2">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B790" s="51" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="791" spans="2:2">
+    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B791" s="51" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="792" spans="2:2">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B792" s="51" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="793" spans="2:2">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B793" s="51" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="794" spans="2:2">
+    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B794" s="51" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="795" spans="2:2">
+    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B795" s="51" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="796" spans="2:2">
+    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B796" s="51" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="797" spans="2:2">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B797" s="51" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="798" spans="2:2">
+    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B798" s="51" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="799" spans="2:2">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B799" s="51" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="800" spans="2:2">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B800" s="51" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="801" spans="2:2">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B801" s="51" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="802" spans="2:2">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B802" s="51" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="803" spans="2:2">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B803" s="51" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="804" spans="2:2">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B804" s="51" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="805" spans="2:2">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B805" s="51" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="806" spans="2:2">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B806" s="51" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="807" spans="2:2">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B807" s="51" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="808" spans="2:2">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B808" s="51" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="809" spans="2:2">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B809" s="51" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="810" spans="2:2">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B810" s="51" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="811" spans="2:2">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B811" s="51" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="812" spans="2:2">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B812" s="51" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="813" spans="2:2">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B813" s="51" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="814" spans="2:2">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B814" s="51" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="815" spans="2:2">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B815" s="51" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="816" spans="2:2">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B816" s="51" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="817" spans="2:2">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B817" s="51" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="818" spans="2:2">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B818" s="51" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="819" spans="2:2">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B819" s="51" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="820" spans="2:2">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B820" s="51" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="821" spans="2:2">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B821" s="51" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="822" spans="2:2">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B822" s="51" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="823" spans="2:2">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B823" s="51" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="824" spans="2:2">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B824" s="51" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="825" spans="2:2">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B825" s="51" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="826" spans="2:2">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B826" s="51" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="827" spans="2:2">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B827" s="51" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="828" spans="2:2">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B828" s="51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="829" spans="2:2">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B829" s="51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="830" spans="2:2">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B830" s="51" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="831" spans="2:2">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B831" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="832" spans="2:2">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B832" s="51" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="833" spans="2:2">
+    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B833" s="51" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B128" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="B619" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="B754" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="B316" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="B539" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="B309" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="B19" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="B20" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="B21" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="B22" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="B33" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="B32" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="B44" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="B45" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="B46" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="B47" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="B48" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="B49" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="B50" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="B51" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="B52" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="B53" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="B54" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="B55" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="B56" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="B57" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="B58" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="B59" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="B61" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="B60" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="B18" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="B62" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="B63" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="B64" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="B65" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="B66" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="B67" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="B68" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="B69" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="B70" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="B71" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="B72" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="B76" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="B77" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="B78" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
-    <hyperlink ref="B80" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
-    <hyperlink ref="B79" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="B95" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="B94" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="B93" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="B92" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="B91" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="B109" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="B108" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
-    <hyperlink ref="B107" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
-    <hyperlink ref="B106" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
-    <hyperlink ref="B105" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
-    <hyperlink ref="B104" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
-    <hyperlink ref="B103" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
-    <hyperlink ref="B102" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
-    <hyperlink ref="B101" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
-    <hyperlink ref="B100" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
-    <hyperlink ref="B99" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
-    <hyperlink ref="B98" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
-    <hyperlink ref="B96" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
-    <hyperlink ref="B97" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="B128" r:id="rId1"/>
+    <hyperlink ref="B619" r:id="rId2"/>
+    <hyperlink ref="B754" r:id="rId3"/>
+    <hyperlink ref="B316" r:id="rId4"/>
+    <hyperlink ref="B539" r:id="rId5"/>
+    <hyperlink ref="B309" r:id="rId6"/>
+    <hyperlink ref="B19" r:id="rId7"/>
+    <hyperlink ref="B20" r:id="rId8"/>
+    <hyperlink ref="B21" r:id="rId9"/>
+    <hyperlink ref="B22" r:id="rId10"/>
+    <hyperlink ref="B33" r:id="rId11"/>
+    <hyperlink ref="B32" r:id="rId12"/>
+    <hyperlink ref="B44" r:id="rId13"/>
+    <hyperlink ref="B45" r:id="rId14"/>
+    <hyperlink ref="B46" r:id="rId15"/>
+    <hyperlink ref="B47" r:id="rId16"/>
+    <hyperlink ref="B48" r:id="rId17"/>
+    <hyperlink ref="B49" r:id="rId18"/>
+    <hyperlink ref="B50" r:id="rId19"/>
+    <hyperlink ref="B51" r:id="rId20"/>
+    <hyperlink ref="B52" r:id="rId21"/>
+    <hyperlink ref="B53" r:id="rId22"/>
+    <hyperlink ref="B54" r:id="rId23"/>
+    <hyperlink ref="B55" r:id="rId24"/>
+    <hyperlink ref="B56" r:id="rId25"/>
+    <hyperlink ref="B57" r:id="rId26"/>
+    <hyperlink ref="B58" r:id="rId27"/>
+    <hyperlink ref="B59" r:id="rId28"/>
+    <hyperlink ref="B61" r:id="rId29"/>
+    <hyperlink ref="B60" r:id="rId30"/>
+    <hyperlink ref="B18" r:id="rId31"/>
+    <hyperlink ref="B62" r:id="rId32"/>
+    <hyperlink ref="B63" r:id="rId33"/>
+    <hyperlink ref="B64" r:id="rId34"/>
+    <hyperlink ref="B65" r:id="rId35"/>
+    <hyperlink ref="B66" r:id="rId36"/>
+    <hyperlink ref="B67" r:id="rId37"/>
+    <hyperlink ref="B68" r:id="rId38"/>
+    <hyperlink ref="B69" r:id="rId39"/>
+    <hyperlink ref="B70" r:id="rId40"/>
+    <hyperlink ref="B71" r:id="rId41"/>
+    <hyperlink ref="B72" r:id="rId42"/>
+    <hyperlink ref="B76" r:id="rId43"/>
+    <hyperlink ref="B77" r:id="rId44"/>
+    <hyperlink ref="B78" r:id="rId45"/>
+    <hyperlink ref="B80" r:id="rId46"/>
+    <hyperlink ref="B79" r:id="rId47"/>
+    <hyperlink ref="B95" r:id="rId48"/>
+    <hyperlink ref="B94" r:id="rId49"/>
+    <hyperlink ref="B93" r:id="rId50"/>
+    <hyperlink ref="B92" r:id="rId51"/>
+    <hyperlink ref="B91" r:id="rId52"/>
+    <hyperlink ref="B109" r:id="rId53"/>
+    <hyperlink ref="B108" r:id="rId54"/>
+    <hyperlink ref="B107" r:id="rId55"/>
+    <hyperlink ref="B106" r:id="rId56"/>
+    <hyperlink ref="B105" r:id="rId57"/>
+    <hyperlink ref="B104" r:id="rId58"/>
+    <hyperlink ref="B103" r:id="rId59"/>
+    <hyperlink ref="B102" r:id="rId60"/>
+    <hyperlink ref="B101" r:id="rId61"/>
+    <hyperlink ref="B100" r:id="rId62"/>
+    <hyperlink ref="B99" r:id="rId63"/>
+    <hyperlink ref="B98" r:id="rId64"/>
+    <hyperlink ref="B96" r:id="rId65"/>
+    <hyperlink ref="B97" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId67"/>
@@ -14314,27 +14316,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.85546875" style="4"/>
     <col min="3" max="3" width="32.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="30.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="16"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -14348,7 +14350,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -14362,17 +14364,17 @@
         <v>886</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -14380,7 +14382,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -14388,13 +14390,13 @@
         <v>887</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="16"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -14411,7 +14413,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -14428,13 +14430,13 @@
         <v>894</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -14451,7 +14453,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -14468,13 +14470,13 @@
         <v>898</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -14491,7 +14493,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -14508,13 +14510,13 @@
         <v>898</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>901</v>
       </c>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
@@ -14528,7 +14530,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
@@ -14542,14 +14544,14 @@
         <v>891</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
@@ -14560,7 +14562,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -14571,17 +14573,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -14610,7 +14612,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>7</v>
       </c>
@@ -14641,20 +14643,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C31" r:id="rId1" display="https://idexx--qa.cs21.my.salesforce.com/005q0000000Ob4Y" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C31" r:id="rId1" display="https://idexx--qa.cs21.my.salesforce.com/005q0000000Ob4Y"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DD_Values!$B$3:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DD_Values!$C$3:$C$11</xm:f>
           </x14:formula1>
@@ -14667,14 +14669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="D72" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -14683,10 +14685,12 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" style="74" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>48</v>
       </c>
@@ -14695,7 +14699,7 @@
       <c r="D1" s="74"/>
       <c r="E1" s="74"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -14706,7 +14710,7 @@
       <c r="D2" s="74"/>
       <c r="E2" s="74"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -14717,7 +14721,7 @@
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>49</v>
       </c>
@@ -14726,7 +14730,7 @@
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -14743,7 +14747,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -14760,7 +14764,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>50</v>
       </c>
@@ -14769,7 +14773,7 @@
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -14782,7 +14786,7 @@
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -14795,7 +14799,7 @@
       <c r="D11" s="74"/>
       <c r="E11" s="74"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>51</v>
       </c>
@@ -14804,7 +14808,7 @@
       <c r="D13" s="74"/>
       <c r="E13" s="74"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -14821,7 +14825,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -14838,7 +14842,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>928</v>
       </c>
@@ -14849,7 +14853,7 @@
       <c r="F17" s="74"/>
       <c r="H17" s="74"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -14860,7 +14864,7 @@
       <c r="F18" s="74"/>
       <c r="H18" s="74"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -14871,13 +14875,13 @@
       <c r="F19" s="74"/>
       <c r="H19" s="74"/>
     </row>
-    <row r="21" spans="1:8" s="74" customFormat="1">
+    <row r="21" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>929</v>
       </c>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:8" s="74" customFormat="1">
+    <row r="22" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
@@ -14903,7 +14907,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="74" customFormat="1">
+    <row r="23" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
@@ -14929,13 +14933,13 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="74" customFormat="1">
+    <row r="25" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>944</v>
       </c>
       <c r="B25" s="16"/>
     </row>
-    <row r="26" spans="1:8" s="74" customFormat="1">
+    <row r="26" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
@@ -14961,7 +14965,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="74" customFormat="1">
+    <row r="27" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
@@ -14987,13 +14991,13 @@
         <v>943</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="74" customFormat="1">
+    <row r="29" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>945</v>
       </c>
       <c r="B29" s="16"/>
     </row>
-    <row r="30" spans="1:8" s="74" customFormat="1">
+    <row r="30" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
@@ -15019,7 +15023,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="74" customFormat="1">
+    <row r="31" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>7</v>
       </c>
@@ -15045,13 +15049,13 @@
         <v>943</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="74" customFormat="1">
+    <row r="33" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>946</v>
       </c>
       <c r="B33" s="16"/>
     </row>
-    <row r="34" spans="1:9" s="74" customFormat="1">
+    <row r="34" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>1</v>
       </c>
@@ -15077,7 +15081,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="74" customFormat="1">
+    <row r="35" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>7</v>
       </c>
@@ -15103,13 +15107,13 @@
         <v>943</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="74" customFormat="1">
+    <row r="37" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>949</v>
       </c>
       <c r="B37" s="16"/>
     </row>
-    <row r="38" spans="1:9" s="74" customFormat="1">
+    <row r="38" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>1</v>
       </c>
@@ -15138,7 +15142,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="74" customFormat="1">
+    <row r="39" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
@@ -15167,13 +15171,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="74" customFormat="1">
+    <row r="41" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>952</v>
       </c>
       <c r="B41" s="16"/>
     </row>
-    <row r="42" spans="1:9" s="74" customFormat="1">
+    <row r="42" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
@@ -15202,7 +15206,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="74" customFormat="1">
+    <row r="43" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>7</v>
       </c>
@@ -15231,13 +15235,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="74" customFormat="1">
+    <row r="45" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>953</v>
       </c>
       <c r="B45" s="16"/>
     </row>
-    <row r="46" spans="1:9" s="74" customFormat="1">
+    <row r="46" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>1</v>
       </c>
@@ -15266,7 +15270,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="74" customFormat="1">
+    <row r="47" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>7</v>
       </c>
@@ -15295,13 +15299,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="74" customFormat="1">
+    <row r="49" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>956</v>
       </c>
       <c r="B49" s="16"/>
     </row>
-    <row r="50" spans="1:9" s="74" customFormat="1">
+    <row r="50" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
@@ -15330,7 +15334,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="74" customFormat="1">
+    <row r="51" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>7</v>
       </c>
@@ -15359,13 +15363,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="74" customFormat="1">
+    <row r="53" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>957</v>
       </c>
       <c r="B53" s="16"/>
     </row>
-    <row r="54" spans="1:9" s="74" customFormat="1">
+    <row r="54" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>1</v>
       </c>
@@ -15394,7 +15398,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="74" customFormat="1">
+    <row r="55" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>7</v>
       </c>
@@ -15423,13 +15427,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="74" customFormat="1">
+    <row r="57" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>958</v>
       </c>
       <c r="B57" s="16"/>
     </row>
-    <row r="58" spans="1:9" s="74" customFormat="1">
+    <row r="58" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>1</v>
       </c>
@@ -15458,7 +15462,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="74" customFormat="1">
+    <row r="59" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>7</v>
       </c>
@@ -15487,13 +15491,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="74" customFormat="1">
+    <row r="61" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>959</v>
       </c>
       <c r="B61" s="16"/>
     </row>
-    <row r="62" spans="1:9" s="74" customFormat="1">
+    <row r="62" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>1</v>
       </c>
@@ -15522,7 +15526,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="74" customFormat="1">
+    <row r="63" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>7</v>
       </c>
@@ -15551,13 +15555,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="74" customFormat="1">
+    <row r="65" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>960</v>
       </c>
       <c r="B65" s="16"/>
     </row>
-    <row r="66" spans="1:9" s="74" customFormat="1">
+    <row r="66" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>1</v>
       </c>
@@ -15586,7 +15590,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="74" customFormat="1">
+    <row r="67" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>7</v>
       </c>
@@ -15615,13 +15619,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="74" customFormat="1">
+    <row r="69" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>961</v>
       </c>
       <c r="B69" s="16"/>
     </row>
-    <row r="70" spans="1:9" s="74" customFormat="1">
+    <row r="70" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>1</v>
       </c>
@@ -15650,7 +15654,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="74" customFormat="1">
+    <row r="71" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>7</v>
       </c>
@@ -15679,13 +15683,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="74" customFormat="1">
+    <row r="73" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>962</v>
       </c>
       <c r="B73" s="16"/>
     </row>
-    <row r="74" spans="1:9" s="74" customFormat="1">
+    <row r="74" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>1</v>
       </c>
@@ -15714,7 +15718,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="74" customFormat="1">
+    <row r="75" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>7</v>
       </c>
@@ -15743,13 +15747,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="74" customFormat="1">
+    <row r="77" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>963</v>
       </c>
       <c r="B77" s="16"/>
     </row>
-    <row r="78" spans="1:9" s="74" customFormat="1">
+    <row r="78" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>1</v>
       </c>
@@ -15778,7 +15782,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="74" customFormat="1">
+    <row r="79" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>7</v>
       </c>
@@ -15807,13 +15811,13 @@
         <v>948</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="74" customFormat="1">
+    <row r="81" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>965</v>
       </c>
       <c r="B81" s="16"/>
     </row>
-    <row r="82" spans="1:8" s="74" customFormat="1">
+    <row r="82" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>1</v>
       </c>
@@ -15839,7 +15843,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="74" customFormat="1">
+    <row r="83" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>7</v>
       </c>
@@ -15865,38 +15869,114 @@
         <v>943</v>
       </c>
     </row>
+    <row r="85" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B85" s="16"/>
+    </row>
+    <row r="86" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="77" t="s">
+        <v>937</v>
+      </c>
+      <c r="C87" s="76" t="s">
+        <v>938</v>
+      </c>
+      <c r="D87" s="78" t="s">
+        <v>939</v>
+      </c>
+      <c r="E87" s="78" t="s">
+        <v>940</v>
+      </c>
+      <c r="F87" s="78" t="s">
+        <v>941</v>
+      </c>
+      <c r="G87" s="78" t="s">
+        <v>966</v>
+      </c>
+      <c r="H87" s="78" t="s">
+        <v>943</v>
+      </c>
+      <c r="I87" s="78" t="s">
+        <v>951</v>
+      </c>
+      <c r="J87" s="74" t="s">
+        <v>948</v>
+      </c>
+      <c r="K87" s="74" t="s">
+        <v>955</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C27" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C39" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C43" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C47" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C51" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="C55" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="C59" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="C63" r:id="rId9" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="C67" r:id="rId10" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="C71" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="C75" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="C79" r:id="rId13" xr:uid="{2D99240D-6EE9-4DA4-9BB7-2953B51D43A3}"/>
-    <hyperlink ref="C31" r:id="rId14" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C35" r:id="rId15" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C83" r:id="rId16" xr:uid="{CDC3145A-35DD-476F-B6D8-AA6A29103A69}"/>
+    <hyperlink ref="C23" r:id="rId1"/>
+    <hyperlink ref="C27" r:id="rId2"/>
+    <hyperlink ref="C39" r:id="rId3"/>
+    <hyperlink ref="C43" r:id="rId4"/>
+    <hyperlink ref="C47" r:id="rId5"/>
+    <hyperlink ref="C51" r:id="rId6"/>
+    <hyperlink ref="C55" r:id="rId7"/>
+    <hyperlink ref="C59" r:id="rId8"/>
+    <hyperlink ref="C63" r:id="rId9"/>
+    <hyperlink ref="C67" r:id="rId10"/>
+    <hyperlink ref="C71" r:id="rId11"/>
+    <hyperlink ref="C75" r:id="rId12"/>
+    <hyperlink ref="C79" r:id="rId13"/>
+    <hyperlink ref="C31" r:id="rId14"/>
+    <hyperlink ref="C35" r:id="rId15"/>
+    <hyperlink ref="C83" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="28.7109375" customWidth="1"/>
@@ -15907,7 +15987,7 @@
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>967</v>
       </c>
@@ -15923,7 +16003,7 @@
       <c r="K1" s="75"/>
       <c r="L1" s="74"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>968</v>
       </c>
@@ -15959,7 +16039,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>977</v>
       </c>
@@ -15998,7 +16078,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>985</v>
       </c>
@@ -16035,7 +16115,7 @@
       </c>
       <c r="L4" s="74"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>985</v>
       </c>
@@ -16072,7 +16152,7 @@
       </c>
       <c r="L5" s="74"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>985</v>
       </c>
@@ -16109,7 +16189,7 @@
       </c>
       <c r="L6" s="74"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>985</v>
       </c>
@@ -16146,7 +16226,7 @@
       </c>
       <c r="L7" s="74"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>996</v>
       </c>
@@ -16183,7 +16263,7 @@
       </c>
       <c r="L8" s="74"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>996</v>
       </c>
@@ -16220,7 +16300,7 @@
       </c>
       <c r="L9" s="74"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>996</v>
       </c>
@@ -16257,7 +16337,7 @@
       </c>
       <c r="L10" s="74"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>1003</v>
       </c>
@@ -16294,7 +16374,7 @@
       </c>
       <c r="L11" s="74"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>1003</v>
       </c>
@@ -16331,7 +16411,7 @@
       </c>
       <c r="L12" s="74"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>1003</v>
       </c>
@@ -16368,7 +16448,7 @@
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="74" t="s">
         <v>1003</v>
       </c>
@@ -16405,7 +16485,7 @@
       </c>
       <c r="L14" s="74"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>1012</v>
       </c>
@@ -16442,7 +16522,7 @@
       </c>
       <c r="L15" s="74"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>1012</v>
       </c>
@@ -16479,7 +16559,7 @@
       </c>
       <c r="L16" s="74"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>1012</v>
       </c>
@@ -16515,7 +16595,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>1021</v>
       </c>
@@ -16551,7 +16631,7 @@
         <v>8610</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>1021</v>
       </c>
@@ -16587,7 +16667,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>1021</v>
       </c>
@@ -16623,7 +16703,7 @@
         <v>9001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="65" customFormat="1">
+    <row r="21" spans="1:11" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
         <v>1027</v>
       </c>
@@ -16659,7 +16739,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
         <v>988</v>
       </c>
@@ -16695,7 +16775,7 @@
         <v>66877</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
         <v>988</v>
       </c>
@@ -16731,7 +16811,7 @@
         <v>8525</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
         <v>988</v>
       </c>
@@ -16767,7 +16847,7 @@
         <v>14163</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
         <v>988</v>
       </c>
@@ -16803,7 +16883,7 @@
         <v>82041</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="74" t="s">
         <v>1038</v>
       </c>
@@ -16839,7 +16919,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
         <v>1038</v>
       </c>
@@ -16875,7 +16955,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="74" t="s">
         <v>1038</v>
       </c>
@@ -16911,7 +16991,7 @@
         <v>8464</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="74" t="s">
         <v>1038</v>
       </c>
@@ -16947,7 +17027,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="68" customFormat="1">
+    <row r="30" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="68" t="s">
         <v>1045</v>
       </c>
@@ -16983,7 +17063,7 @@
         <v>8304</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
         <v>1045</v>
       </c>
@@ -17019,7 +17099,7 @@
         <v>8029</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="74" t="s">
         <v>1045</v>
       </c>
@@ -17055,7 +17135,7 @@
         <v>28760</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
         <v>1045</v>
       </c>
@@ -17091,7 +17171,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="74" t="s">
         <v>1053</v>
       </c>
@@ -17127,7 +17207,7 @@
         <v>20360</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
         <v>1053</v>
       </c>
@@ -17163,7 +17243,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="74" t="s">
         <v>1053</v>
       </c>
@@ -17199,7 +17279,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="74" t="s">
         <v>1053</v>
       </c>
@@ -17235,7 +17315,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="74" t="s">
         <v>1064</v>
       </c>
@@ -17271,7 +17351,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="74" t="s">
         <v>1064</v>
       </c>
@@ -17307,7 +17387,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="74" t="s">
         <v>1064</v>
       </c>
@@ -17343,7 +17423,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="74" t="s">
         <v>1064</v>
       </c>
@@ -17379,7 +17459,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="74" t="s">
         <v>1075</v>
       </c>
@@ -17415,7 +17495,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="74" t="s">
         <v>1075</v>
       </c>
@@ -17451,7 +17531,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="74" t="s">
         <v>1075</v>
       </c>
@@ -17487,7 +17567,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="74" t="s">
         <v>1075</v>
       </c>
@@ -17523,7 +17603,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="74" t="s">
         <v>1086</v>
       </c>
@@ -17559,7 +17639,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="74" t="s">
         <v>1086</v>
       </c>
@@ -17595,7 +17675,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="74" t="s">
         <v>1086</v>
       </c>
@@ -17631,7 +17711,7 @@
         <v>35020</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="74" t="s">
         <v>1086</v>
       </c>
@@ -17667,7 +17747,7 @@
         <v>20129</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="74" t="s">
         <v>1096</v>
       </c>
@@ -17703,7 +17783,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="74" t="s">
         <v>1096</v>
       </c>
@@ -17739,7 +17819,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="74" t="s">
         <v>1096</v>
       </c>
@@ -17775,7 +17855,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
         <v>1096</v>
       </c>
@@ -17811,7 +17891,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="74" t="s">
         <v>1107</v>
       </c>
@@ -17847,7 +17927,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="74" t="s">
         <v>1107</v>
       </c>
@@ -17883,7 +17963,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="74" t="s">
         <v>1107</v>
       </c>
@@ -17919,7 +17999,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="74" t="s">
         <v>1107</v>
       </c>
@@ -17955,7 +18035,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="68" customFormat="1">
+    <row r="58" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="68" t="s">
         <v>1119</v>
       </c>
@@ -17991,7 +18071,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="74" t="s">
         <v>1119</v>
       </c>
@@ -18027,7 +18107,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="74" t="s">
         <v>1119</v>
       </c>
@@ -18063,7 +18143,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="74" t="s">
         <v>1119</v>
       </c>
@@ -18099,7 +18179,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="74" t="s">
         <v>1130</v>
       </c>
@@ -18135,7 +18215,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="74" t="s">
         <v>1130</v>
       </c>
@@ -18171,7 +18251,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="74" t="s">
         <v>1130</v>
       </c>
@@ -18207,7 +18287,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="68" customFormat="1">
+    <row r="65" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="68" t="s">
         <v>1140</v>
       </c>
@@ -18239,7 +18319,7 @@
       <c r="J65" s="70"/>
       <c r="K65" s="70"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="74" t="s">
         <v>977</v>
       </c>
@@ -18275,7 +18355,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="74" t="s">
         <v>977</v>
       </c>
@@ -18311,7 +18391,7 @@
         <v>53963</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="74" t="s">
         <v>977</v>
       </c>
@@ -18347,7 +18427,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="74" t="s">
         <v>1149</v>
       </c>
@@ -18381,7 +18461,7 @@
       </c>
       <c r="K69" s="75"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="74" t="s">
         <v>1149</v>
       </c>
@@ -18415,7 +18495,7 @@
       </c>
       <c r="K70" s="75"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="74" t="s">
         <v>1149</v>
       </c>
@@ -18449,7 +18529,7 @@
       </c>
       <c r="K71" s="75"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="74" t="s">
         <v>1149</v>
       </c>
@@ -18485,39 +18565,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="E21" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="E16" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="E19" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="E22" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="E26" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="E30" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="E34" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="E31" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="E35" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="E38" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="E42" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="E43" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="E46" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="E47" r:id="rId20" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="E50" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="E54" r:id="rId22" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
-    <hyperlink ref="E55" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
-    <hyperlink ref="E58" r:id="rId24" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
-    <hyperlink ref="E59" r:id="rId25" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
-    <hyperlink ref="E62" r:id="rId26" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
-    <hyperlink ref="E63" r:id="rId27" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
-    <hyperlink ref="E65" r:id="rId28" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
-    <hyperlink ref="E66" r:id="rId29" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
-    <hyperlink ref="E69" r:id="rId30" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
-    <hyperlink ref="E72" r:id="rId31" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
-    <hyperlink ref="E10" r:id="rId32" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
-    <hyperlink ref="H55" r:id="rId33" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="E15" r:id="rId4"/>
+    <hyperlink ref="E18" r:id="rId5"/>
+    <hyperlink ref="E21" r:id="rId6"/>
+    <hyperlink ref="E16" r:id="rId7"/>
+    <hyperlink ref="E19" r:id="rId8"/>
+    <hyperlink ref="E22" r:id="rId9"/>
+    <hyperlink ref="E23" r:id="rId10"/>
+    <hyperlink ref="E26" r:id="rId11"/>
+    <hyperlink ref="E30" r:id="rId12"/>
+    <hyperlink ref="E34" r:id="rId13"/>
+    <hyperlink ref="E31" r:id="rId14"/>
+    <hyperlink ref="E35" r:id="rId15"/>
+    <hyperlink ref="E38" r:id="rId16"/>
+    <hyperlink ref="E42" r:id="rId17"/>
+    <hyperlink ref="E43" r:id="rId18"/>
+    <hyperlink ref="E46" r:id="rId19"/>
+    <hyperlink ref="E47" r:id="rId20"/>
+    <hyperlink ref="E50" r:id="rId21"/>
+    <hyperlink ref="E54" r:id="rId22"/>
+    <hyperlink ref="E55" r:id="rId23"/>
+    <hyperlink ref="E58" r:id="rId24"/>
+    <hyperlink ref="E59" r:id="rId25"/>
+    <hyperlink ref="E62" r:id="rId26"/>
+    <hyperlink ref="E63" r:id="rId27"/>
+    <hyperlink ref="E65" r:id="rId28"/>
+    <hyperlink ref="E66" r:id="rId29"/>
+    <hyperlink ref="E69" r:id="rId30"/>
+    <hyperlink ref="E72" r:id="rId31"/>
+    <hyperlink ref="E10" r:id="rId32"/>
+    <hyperlink ref="H55" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId34"/>
@@ -18525,14 +18605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -18544,7 +18624,7 @@
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>968</v>
       </c>
@@ -18582,7 +18662,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="71" customFormat="1">
+    <row r="2" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
         <v>1027</v>
       </c>
@@ -18620,7 +18700,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>977</v>
       </c>
@@ -18658,7 +18738,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>985</v>
       </c>
@@ -18696,7 +18776,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="71" customFormat="1">
+    <row r="5" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
         <v>996</v>
       </c>
@@ -18736,14 +18816,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="H4" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="H5" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="E2" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="H2" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId5"/>
+    <hyperlink ref="H5" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId7"/>
+    <hyperlink ref="H2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -18751,14 +18831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{44B22561-5205-5C8A-B808-2C70100D228F}">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
@@ -18767,7 +18847,7 @@
     <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>930</v>
       </c>
@@ -18787,7 +18867,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>937</v>
       </c>
